--- a/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,36</t>
+          <t>-8,3; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,46</t>
+          <t>-9,76; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -0,7</t>
+          <t>-10,75; 0,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,07</t>
+          <t>-1,15; 9,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,64</t>
+          <t>-0,17; 10,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -0,73</t>
+          <t>-0,21; 9,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,3</t>
+          <t>-3,0; 4,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -1,31</t>
+          <t>-3,72; 3,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,02</t>
+          <t>-4,41; 2,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,38%</t>
+          <t>-22,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,04%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-55,91%</t>
+          <t>-60,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,78%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,29%</t>
+          <t>126,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-58,04%</t>
+          <t>120,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,56%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,27%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-57,0%</t>
+          <t>-8,07%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 49,4</t>
+          <t>-69,1; 75,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 11,41</t>
+          <t>-79,14; 24,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,11; -5,23</t>
+          <t>-87,43; 6,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 64,81</t>
+          <t>-29,88; 544,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,02; -9,54</t>
+          <t>-14,79; 538,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,73; -12,52</t>
+          <t>-13,82; 635,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 21,58</t>
+          <t>-36,67; 112,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -21,15</t>
+          <t>-45,14; 92,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,0; -30,74</t>
+          <t>-52,11; 62,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,49</t>
+          <t>-5,19; 2,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,73</t>
+          <t>-6,27; 0,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 0,06</t>
+          <t>-7,04; -0,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 9,05</t>
+          <t>-5,19; 3,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,06</t>
+          <t>-7,73; -0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,94</t>
+          <t>-7,68; -0,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,63</t>
+          <t>-3,92; 1,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,83</t>
+          <t>-5,91; -1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,86</t>
+          <t>-6,62; -2,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,58%</t>
+          <t>-20,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,15%</t>
+          <t>-45,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,53%</t>
+          <t>-55,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>-18,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>126,16%</t>
+          <t>-55,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>120,24%</t>
+          <t>-58,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>-19,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>-50,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>-57,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 75,54</t>
+          <t>-60,07; 49,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 24,87</t>
+          <t>-69,39; 11,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,43; 6,05</t>
+          <t>-77,11; -5,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 544,41</t>
+          <t>-54,05; 64,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 538,22</t>
+          <t>-79,02; -9,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 635,97</t>
+          <t>-80,73; -12,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 112,59</t>
+          <t>-46,52; 21,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 92,87</t>
+          <t>-69,91; -21,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 62,27</t>
+          <t>-75,0; -30,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>6,06</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,67</t>
+          <t>0,0; 57,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>0,0; 29,8</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,49</t>
+          <t>-4,3; 7,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,73</t>
+          <t>-5,69; 5,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 0,06</t>
+          <t>-6,34; 4,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 9,05</t>
+          <t>0,24; 13,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,06</t>
+          <t>-2,97; 6,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,94</t>
+          <t>-1,69; 9,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,63</t>
+          <t>-0,29; 7,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,83</t>
+          <t>-2,91; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,86</t>
+          <t>-2,4; 5,01</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,58%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,15%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-60,53%</t>
+          <t>-20,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>225,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>126,16%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>120,24%</t>
+          <t>124,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>105,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>34,21%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 75,54</t>
+          <t>-71,12; 430,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 24,87</t>
+          <t>-87,09; 296,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,43; 6,05</t>
+          <t>-100,0; 366,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 544,41</t>
+          <t>-29,49; 1442,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 538,22</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 635,97</t>
+          <t>-57,65; 932,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 112,59</t>
+          <t>-12,55; 397,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 92,87</t>
+          <t>-64,07; 245,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 62,27</t>
+          <t>-54,81; 252,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-1,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,36</t>
+          <t>-9,7; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,46</t>
+          <t>-9,76; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -0,7</t>
+          <t>-12,02; -1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,07</t>
+          <t>-3,76; 5,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,64</t>
+          <t>0,04; 10,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -0,73</t>
+          <t>-2,26; 7,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,3</t>
+          <t>-5,39; 2,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -1,31</t>
+          <t>-3,58; 3,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,02</t>
+          <t>-5,8; 1,25</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,38%</t>
+          <t>-42,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-45,04%</t>
+          <t>-44,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-55,91%</t>
+          <t>-63,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,78%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-55,29%</t>
+          <t>102,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-58,04%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-19,56%</t>
+          <t>-23,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-50,27%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-57,0%</t>
+          <t>-27,93%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 49,4</t>
+          <t>-75,98; 43,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 11,41</t>
+          <t>-73,83; 21,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,11; -5,23</t>
+          <t>-85,42; -10,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 64,81</t>
+          <t>-57,77; 266,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,02; -9,54</t>
+          <t>-8,15; 454,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,73; -12,52</t>
+          <t>-40,97; 310,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 21,58</t>
+          <t>-57,14; 43,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -21,15</t>
+          <t>-40,21; 82,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,0; -30,74</t>
+          <t>-61,55; 36,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-5,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,71</t>
+          <t>-5,54; 3,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -0,43</t>
+          <t>-8,37; -0,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,43</t>
+          <t>-8,45; -1,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,54</t>
+          <t>-7,42; 2,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,24</t>
+          <t>-11,16; -3,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,67</t>
+          <t>-10,27; -1,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,96</t>
+          <t>-5,05; 1,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,04</t>
+          <t>-8,56; -3,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,73</t>
+          <t>-7,94; -2,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>-14,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-44,67%</t>
+          <t>-63,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,4%</t>
+          <t>-61,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>-30,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>-79,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-69,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,33%</t>
+          <t>-23,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-29,03%</t>
+          <t>-72,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,33%</t>
+          <t>-66,02%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 29,63</t>
+          <t>-61,88; 80,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,79; -6,4</t>
+          <t>-88,41; -2,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -23,82</t>
+          <t>-83,48; -10,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 76,42</t>
+          <t>-69,11; 41,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 51,72</t>
+          <t>-94,97; -44,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 42,28</t>
+          <t>-88,21; -22,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 34,52</t>
+          <t>-53,08; 28,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 1,12</t>
+          <t>-88,59; -43,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,97; -12,78</t>
+          <t>-82,43; -37,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 1,62</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; -0,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; -1,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 3,18</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 2,07</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 1,29</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 1,66</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 0,12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; -0,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-19,07%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-44,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-55,4%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-22,34%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-29,03%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-41,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-50,34; 32,26</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-67,59; -8,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-73,84; -21,05</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-36,27; 72,02</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-46,74; 48,99</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-53,76; 28,8</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-35,49; 31,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-51,87; 2,69</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-60,41; -15,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,82</t>
+          <t>0,0; 60,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,8</t>
+          <t>0,0; 30,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 7,31</t>
+          <t>-3,68; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,29</t>
+          <t>-5,19; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,55</t>
+          <t>-6,03; 4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 13,46</t>
+          <t>0,3; 13,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,99</t>
+          <t>-2,79; 7,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,1</t>
+          <t>-1,51; 9,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,85</t>
+          <t>-0,61; 7,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,38</t>
+          <t>-3,05; 4,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,01</t>
+          <t>-2,41; 5,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 430,91</t>
+          <t>-65,8; 440,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-87,09; 296,28</t>
+          <t>-82,72; 427,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 366,57</t>
+          <t>-100,0; 336,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 1442,27</t>
+          <t>-12,59; 1443,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 932,55</t>
+          <t>-59,19; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 397,81</t>
+          <t>-14,99; 408,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 245,03</t>
+          <t>-65,95; 229,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 252,74</t>
+          <t>-53,98; 304,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 2,12</t>
+          <t>-9,82; 1,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,8</t>
+          <t>-9,61; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -1,44</t>
+          <t>-11,64; -0,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,62</t>
+          <t>-4,18; 5,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 10,05</t>
+          <t>-0,6; 9,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,57</t>
+          <t>-2,8; 7,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 2,0</t>
+          <t>-5,4; 1,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,97</t>
+          <t>-3,43; 4,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,25</t>
+          <t>-5,75; 1,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 43,09</t>
+          <t>-73,38; 41,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,83; 21,78</t>
+          <t>-76,34; 35,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,42; -10,73</t>
+          <t>-86,16; -4,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 266,33</t>
+          <t>-66,29; 258,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 454,08</t>
+          <t>-17,81; 471,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 310,04</t>
+          <t>-43,54; 372,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 43,0</t>
+          <t>-58,69; 39,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 82,39</t>
+          <t>-37,06; 78,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 36,86</t>
+          <t>-60,16; 24,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 3,56</t>
+          <t>-5,79; 3,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -0,85</t>
+          <t>-8,2; -0,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,2</t>
+          <t>-8,01; -0,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 2,03</t>
+          <t>-7,41; 1,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,02</t>
+          <t>-11,06; -3,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -1,69</t>
+          <t>-10,41; -2,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,56</t>
+          <t>-4,9; 1,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -3,02</t>
+          <t>-8,59; -3,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -2,46</t>
+          <t>-7,69; -2,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,88; 80,81</t>
+          <t>-62,72; 68,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,41; -2,39</t>
+          <t>-89,36; -11,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,48; -10,21</t>
+          <t>-85,06; -3,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 41,3</t>
+          <t>-67,01; 33,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,97; -44,28</t>
+          <t>-95,56; -40,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,21; -22,0</t>
+          <t>-89,39; -18,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 28,18</t>
+          <t>-54,54; 23,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-88,59; -43,37</t>
+          <t>-89,34; -49,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-82,43; -37,1</t>
+          <t>-81,59; -33,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,62</t>
+          <t>-4,45; 1,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,54</t>
+          <t>-5,98; -0,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,37</t>
+          <t>-6,59; -1,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,18</t>
+          <t>-2,19; 3,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,07</t>
+          <t>-3,23; 2,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,29</t>
+          <t>-4,03; 1,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,66</t>
+          <t>-2,6; 1,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,12</t>
+          <t>-3,83; -0,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,89</t>
+          <t>-4,41; -0,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 32,26</t>
+          <t>-50,45; 36,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,59; -8,3</t>
+          <t>-68,76; -6,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-73,84; -21,05</t>
+          <t>-74,36; -19,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 72,02</t>
+          <t>-31,21; 77,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 48,99</t>
+          <t>-44,75; 47,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 28,8</t>
+          <t>-54,77; 28,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 31,84</t>
+          <t>-34,64; 27,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 2,69</t>
+          <t>-50,9; -1,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -15,47</t>
+          <t>-59,31; -13,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>13,3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>6,36</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 53,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,34</t>
+          <t>0,0; 31,1</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,48</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,4</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,04</t>
+          <t>0,72; 12,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,09</t>
+          <t>-3,48; 7,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,23</t>
+          <t>-1,22; 9,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 13,12</t>
+          <t>-4,36; 7,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,08</t>
+          <t>-5,75; 5,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 9,15</t>
+          <t>-6,11; 4,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,72</t>
+          <t>0,03; 7,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,51</t>
+          <t>-2,82; 4,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,45</t>
+          <t>-2,34; 5,26</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>225,11%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>125,46%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>34,55%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-9,38%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-20,67%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>225,11%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>53,45%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>124,16%</t>
+          <t>-16,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>35,96%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 440,78</t>
+          <t>-33,78; 1533,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 427,74</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 336,19</t>
+          <t>-63,36; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 1443,85</t>
+          <t>-66,76; 386,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,69; 467,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,19; —</t>
+          <t>-100,0; 334,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 408,34</t>
+          <t>-14,86; 471,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 229,67</t>
+          <t>-61,19; 265,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 304,54</t>
+          <t>-52,63; 287,55</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-3,96</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-4,17</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 1,78</t>
+          <t>-4,56; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 1,46</t>
+          <t>-0,46; 9,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -0,76</t>
+          <t>-2,81; 7,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 5,0</t>
+          <t>-10,12; 1,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,9</t>
+          <t>-10,15; 1,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 7,89</t>
+          <t>-11,6; -0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 1,98</t>
+          <t>-5,5; 1,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,02</t>
+          <t>-3,42; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,14</t>
+          <t>-6,06; 1,17</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>102,92%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54,78%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-42,13%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-44,43%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-63,6%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>102,92%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>-63,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-27,93%</t>
+          <t>-28,98%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,38; 41,62</t>
+          <t>-61,02; 247,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,34; 35,0</t>
+          <t>-13,3; 442,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,16; -4,95</t>
+          <t>-46,88; 344,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 258,81</t>
+          <t>-75,8; 26,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 471,45</t>
+          <t>-75,22; 25,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 372,58</t>
+          <t>-85,33; 3,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 39,29</t>
+          <t>-58,69; 37,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 78,75</t>
+          <t>-38,32; 87,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,16; 24,13</t>
+          <t>-62,03; 24,5</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-6,68</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-5,5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,04</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-4,5</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-6,68</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 3,36</t>
+          <t>-7,15; 2,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -0,99</t>
+          <t>-11,22; -3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -0,87</t>
+          <t>-9,69; -1,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,85</t>
+          <t>-5,39; 3,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -3,39</t>
+          <t>-8,42; -0,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,41; -2,3</t>
+          <t>-7,89; -0,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,31</t>
+          <t>-5,0; 1,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -3,31</t>
+          <t>-8,27; -2,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -2,38</t>
+          <t>-7,93; -2,35</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-30,51%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-79,8%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-65,65%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-14,74%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-63,92%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-61,99%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-30,51%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-79,8%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-69,67%</t>
+          <t>-61,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-66,02%</t>
+          <t>-63,78%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 68,44</t>
+          <t>-64,57; 42,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,36; -11,69</t>
+          <t>-94,87; -40,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,06; -3,52</t>
+          <t>-87,42; -6,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 33,81</t>
+          <t>-59,1; 72,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-95,56; -40,74</t>
+          <t>-88,85; -9,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,39; -18,33</t>
+          <t>-84,68; -3,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,54; 23,31</t>
+          <t>-53,65; 27,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-89,34; -49,75</t>
+          <t>-88,05; -45,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,59; -33,81</t>
+          <t>-82,68; -32,29</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-1,35</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-3,16</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,79</t>
+          <t>-2,42; 3,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -0,57</t>
+          <t>-3,16; 2,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,32</t>
+          <t>-3,8; 2,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,45</t>
+          <t>-4,2; 1,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,1</t>
+          <t>-5,93; -0,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,35</t>
+          <t>-6,55; -1,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,56</t>
+          <t>-2,47; 1,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; -0,08</t>
+          <t>-4,08; 0,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; -0,79</t>
+          <t>-4,33; -0,66</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-19,07%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-44,67%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-55,4%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-54,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-41,33%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 36,08</t>
+          <t>-33,59; 76,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,76; -6,54</t>
+          <t>-44,75; 51,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -19,67</t>
+          <t>-52,89; 48,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 77,66</t>
+          <t>-48,69; 29,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 47,39</t>
+          <t>-69,79; -6,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 28,67</t>
+          <t>-74,94; -23,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 27,45</t>
+          <t>-32,88; 34,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,9; -1,38</t>
+          <t>-52,74; 1,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,31; -13,43</t>
+          <t>-58,68; -11,61</t>
         </is>
       </c>
     </row>
